--- a/log_history/Y2_B2526_Physiology_scanner1765789558186_b79e6315d906265a53f0b03c93014c791ab09dd5f2363f96a9ce27edfbaf9506.xlsx
+++ b/log_history/Y2_B2526_Physiology_scanner1765789558186_b79e6315d906265a53f0b03c93014c791ab09dd5f2363f96a9ce27edfbaf9506.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Scanner" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y2_B2526_Physiology_scanner1765789558186_b79e6315d906265a53f0b03c93014c791ab09dd5f2363f96a9ce27edfbaf9506.xlsx
+++ b/log_history/Y2_B2526_Physiology_scanner1765789558186_b79e6315d906265a53f0b03c93014c791ab09dd5f2363f96a9ce27edfbaf9506.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Physiology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
